--- a/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
+++ b/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5235530320186618</v>
+        <v>0.5039608797484473</v>
       </c>
       <c r="C2" t="n">
-        <v>0.989574947304159</v>
+        <v>0.9899650686621699</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2494720297271641</v>
+        <v>0.2469833580335581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951240629052317</v>
+        <v>0.9951727040560686</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2795432749828122</v>
+        <v>0.2825069325284694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946222089933585</v>
+        <v>0.9945651948122919</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4128955453897633</v>
+        <v>0.4116845171499771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918582651493177</v>
+        <v>0.9918821449681609</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4923336844920961</v>
+        <v>0.4836488263199394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9855388699867875</v>
+        <v>0.9857939670218471</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09462127705615217</v>
+        <v>0.09470235630165566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986923083310135</v>
+        <v>0.9986911877938872</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03259981127273529</v>
+        <v>0.03250356121441154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996640006963562</v>
+        <v>0.9996649927251843</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09052835468259965</v>
+        <v>0.1037495486911626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9994607484209529</v>
+        <v>0.999381993540551</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06698186849735702</v>
+        <v>0.06871875861950211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987763998893912</v>
+        <v>0.9987446710201726</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1282621759049345</v>
+        <v>0.126253141075985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9905235231885163</v>
+        <v>0.9906719580005385</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05174632723155074</v>
+        <v>0.05216907503178123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984782287978784</v>
+        <v>0.998465796506302</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06022541330328327</v>
+        <v>0.0604839819808236</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994287349649197</v>
+        <v>0.9994262823251362</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05590743423071984</v>
+        <v>0.05761781077188773</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992430478510804</v>
+        <v>0.9992198904084949</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
+++ b/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5039608797484473</v>
+        <v>0.5383957249147062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9899650686621699</v>
+        <v>0.9892793977683405</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2469833580335581</v>
+        <v>0.2471851971389369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951727040560686</v>
+        <v>0.9951687591056781</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2825069325284694</v>
+        <v>0.2793909772648969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945651948122919</v>
+        <v>0.9946251388627957</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4116845171499771</v>
+        <v>0.4141130016185339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918821449681609</v>
+        <v>0.9918342585793326</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4836488263199394</v>
+        <v>0.5028005785757672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9857939670218471</v>
+        <v>0.9852314298888494</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09470235630165566</v>
+        <v>0.09478778173813857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986911877938872</v>
+        <v>0.9986900071912249</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03250356121441154</v>
+        <v>0.03292551676276323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996649927251843</v>
+        <v>0.9996606437193195</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1037495486911626</v>
+        <v>0.09714035244815278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999381993540551</v>
+        <v>0.9994213626368167</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06871875861950211</v>
+        <v>0.06788798627532909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987446710201726</v>
+        <v>0.9987598472634609</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.126253141075985</v>
+        <v>0.1229159912292265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9906719580005385</v>
+        <v>0.9909185187883635</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05216907503178123</v>
+        <v>0.05125156037683928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.998465796506302</v>
+        <v>0.9984927790469791</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0604839819808236</v>
+        <v>0.06048728111847583</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994262823251362</v>
+        <v>0.9994262510313371</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05761781077188773</v>
+        <v>0.05721954093985681</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992198904084949</v>
+        <v>0.9992252827361765</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
+++ b/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5383957249147062</v>
+        <v>0.4994742218335629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9892793977683405</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9900544075492175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5787430976917186</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2471851971389369</v>
+        <v>0.2462143248592855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951687591056781</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9951877348287995</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.389487354966141</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2793909772648969</v>
+        <v>0.2813913072590536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946251388627957</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9945866569617249</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4296535512881828</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4141130016185339</v>
+        <v>0.414215823181585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918342585793326</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.9918322310788845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4964868541284111</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -534,12 +551,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5028005785757672</v>
+        <v>0.4962020155763345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9852314298888494</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>0.985425246969502</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.514623945945233</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -552,12 +572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09478778173813857</v>
+        <v>0.09566416833399247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986900071912249</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>0.9986778952911759</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2515039606869272</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -570,12 +593,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03292551676276323</v>
+        <v>0.03715217076155934</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996606437193195</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>0.9996170804977886</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1350414551024903</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -588,12 +614,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09714035244815278</v>
+        <v>0.106471268435573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9994213626368167</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>0.9993657810326021</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2232323037118775</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -606,12 +635,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06788798627532909</v>
+        <v>0.0680855673228315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987598472634609</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>0.9987562379256355</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2061592980343896</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -624,12 +656,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1229159912292265</v>
+        <v>0.1292650287010617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9909185187883635</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>0.990449428770573</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.281317959080314</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -642,12 +677,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05125156037683928</v>
+        <v>0.0516315487418447</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984927790469791</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>0.9984816042374429</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1667844346675577</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -660,12 +698,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06048728111847583</v>
+        <v>0.06039727671964274</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994262510313371</v>
-      </c>
-      <c r="D13" t="inlineStr">
+        <v>0.9994271047633952</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1786501536999743</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>global</t>
         </is>
@@ -678,12 +719,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05721954093985681</v>
+        <v>0.05580559739108672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992252827361765</v>
-      </c>
-      <c r="D14" t="inlineStr">
+        <v>0.9992444266590271</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.189897783702991</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>global</t>
         </is>

--- a/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
+++ b/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4994742218335629</v>
+        <v>0.5343502614175931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9900544075492175</v>
+        <v>0.9893599515376003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5787430976917186</v>
+        <v>0.6114124767059477</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2462143248592855</v>
+        <v>0.2478145157890329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951877348287995</v>
+        <v>0.9951564590568358</v>
       </c>
       <c r="D3" t="n">
-        <v>0.389487354966141</v>
+        <v>0.3905129923112245</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2813913072590536</v>
+        <v>0.2906691478160842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945866569617249</v>
+        <v>0.9944081719399989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4296535512881828</v>
+        <v>0.4444675901875104</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.414215823181585</v>
+        <v>0.4142025673419836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918322310788845</v>
+        <v>0.9918324924658926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4964868541284111</v>
+        <v>0.4966819928325304</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -551,17 +612,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4962020155763345</v>
+        <v>0.4849316671866268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.985425246969502</v>
+        <v>0.9857562866251085</v>
       </c>
       <c r="D6" t="n">
-        <v>0.514623945945233</v>
+        <v>0.5129315018905797</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -572,17 +647,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09566416833399247</v>
+        <v>0.09456831123154207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986778952911759</v>
+        <v>0.9986930403330508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2515039606869272</v>
+        <v>0.2513101752851327</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -593,17 +682,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03715217076155934</v>
+        <v>0.03699246652441175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996170804977886</v>
+        <v>0.9996187265353078</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1350414551024903</v>
+        <v>0.1351892691472226</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -614,17 +717,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.106471268435573</v>
+        <v>0.0968294432200346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9993657810326021</v>
+        <v>0.9994232146343792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2232323037118775</v>
+        <v>0.2189325545095534</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -635,17 +752,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0680855673228315</v>
+        <v>0.06752566960878822</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987562379256355</v>
+        <v>0.9987664659309182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2061592980343896</v>
+        <v>0.2059592627517777</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -656,17 +787,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1292650287010617</v>
+        <v>0.1273178433545562</v>
       </c>
       <c r="C11" t="n">
-        <v>0.990449428770573</v>
+        <v>0.9905932939175162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.281317959080314</v>
+        <v>0.2757376756410942</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -677,17 +822,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0516315487418447</v>
+        <v>0.05272969306323207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984816042374429</v>
+        <v>0.9984493096864386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1667844346675577</v>
+        <v>0.1681976945500981</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -698,17 +857,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06039727671964274</v>
+        <v>0.05907475696115474</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994271047633952</v>
+        <v>0.9994396494559892</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1786501536999743</v>
+        <v>0.1751086826368257</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -719,17 +892,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05580559739108672</v>
+        <v>0.05578305852789792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992444266590271</v>
+        <v>0.9992447318213219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.189897783702991</v>
+        <v>0.1901039495598666</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>global</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
+++ b/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5343502614175931</v>
+        <v>0.5012650052568042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9893599515376003</v>
+        <v>0.990018749248315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6114124767059477</v>
+        <v>0.5783909156722671</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,6 +508,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2478145157890329</v>
+        <v>0.2408662486245789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951564590568358</v>
+        <v>0.9952922631133009</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3905129923112245</v>
+        <v>0.3906853379118294</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -533,6 +549,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2906691478160842</v>
+        <v>0.2796426285527719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9944081719399989</v>
+        <v>0.9946202976515992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4444675901875104</v>
+        <v>0.4280836761227448</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -568,6 +590,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4142025673419836</v>
+        <v>0.4107685786646339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918324924658926</v>
+        <v>0.9919002060210602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4966819928325304</v>
+        <v>0.4918168826609312</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -603,6 +631,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -612,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4849316671866268</v>
+        <v>0.4838554589956822</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9857562866251085</v>
+        <v>0.985787897678873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5129315018905797</v>
+        <v>0.5111291360470315</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -638,6 +672,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
@@ -647,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09456831123154207</v>
+        <v>0.09370646054035536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986930403330508</v>
+        <v>0.9987049513429616</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2513101752851327</v>
+        <v>0.2492622490976881</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -673,6 +713,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
@@ -682,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03699246652441175</v>
+        <v>0.03283384250914684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996187265353078</v>
+        <v>0.9996615885863042</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1351892691472226</v>
+        <v>0.1307150721627474</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -708,6 +754,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="9">
@@ -717,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0968294432200346</v>
+        <v>0.09490897099941178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9994232146343792</v>
+        <v>0.999434654339443</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2189325545095534</v>
+        <v>0.2166318052638244</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -743,6 +795,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="10">
@@ -752,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06752566960878822</v>
+        <v>0.06675309232430304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987664659309182</v>
+        <v>0.9987805790882839</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2059592627517777</v>
+        <v>0.2050030884974856</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -778,6 +836,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="11">
@@ -787,13 +851,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1273178433545562</v>
+        <v>0.1246800155313699</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9905932939175162</v>
+        <v>0.9907881862466283</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2757376756410942</v>
+        <v>0.2717651402261659</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -813,6 +877,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="12">
@@ -822,13 +892,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05272969306323207</v>
+        <v>0.05249095752039892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984493096864386</v>
+        <v>0.9984563304914589</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1681976945500981</v>
+        <v>0.1675798128709076</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -848,6 +918,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="13">
@@ -857,13 +933,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05907475696115474</v>
+        <v>0.05951985533614699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994396494559892</v>
+        <v>0.9994354274984324</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1751086826368257</v>
+        <v>0.1779264057377217</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -883,6 +959,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="14">
@@ -892,13 +974,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05578305852789792</v>
+        <v>0.05599300176264916</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992447318213219</v>
+        <v>0.9992418893195172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1901039495598666</v>
+        <v>0.1915715355941557</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -918,6 +1000,12 @@
                                                                                 150]},
                                             scoring='neg_mean_squared_error'))</t>
         </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.669922641383406</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
+++ b/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5012650052568042</v>
+        <v>0.5054668303206795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.990018749248315</v>
+        <v>0.9899350819882082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5783909156722671</v>
+        <v>0.5809698152077916</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2408662486245789</v>
+        <v>0.2380200390277357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9952922631133009</v>
+        <v>0.995347892351448</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3906853379118294</v>
+        <v>0.388928029521514</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H3" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2796426285527719</v>
+        <v>0.2801693682837393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946202976515992</v>
+        <v>0.9946101643504557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4280836761227448</v>
+        <v>0.4308705752058256</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H4" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4107685786646339</v>
+        <v>0.4101610742791144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9919002060210602</v>
+        <v>0.991912185175795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4918168826609312</v>
+        <v>0.4881433782610972</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4838554589956822</v>
+        <v>0.4977224935575978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.985787897678873</v>
+        <v>0.9853805865482026</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5111291360470315</v>
+        <v>0.5101095275548755</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H6" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09370646054035536</v>
+        <v>0.0927991180629256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9987049513429616</v>
+        <v>0.9987174910616756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2492622490976881</v>
+        <v>0.2452999389069703</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -711,14 +711,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H7" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03283384250914684</v>
+        <v>0.03259983967928603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996615885863042</v>
+        <v>0.9996640004035759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1307150721627474</v>
+        <v>0.1293105934372282</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -752,14 +752,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H8" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09490897099941178</v>
+        <v>0.09601824870913474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999434654339443</v>
+        <v>0.9994280466886284</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2166318052638244</v>
+        <v>0.2185058989829345</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -793,14 +793,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H9" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06675309232430304</v>
+        <v>0.06784387018863616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987805790882839</v>
+        <v>0.9987606531598888</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2050030884974856</v>
+        <v>0.2064557390828126</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -834,14 +834,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H10" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1246800155313699</v>
+        <v>0.1275950966913157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9907881862466283</v>
+        <v>0.99057280943097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2717651402261659</v>
+        <v>0.2762380100792847</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -875,14 +875,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05249095752039892</v>
+        <v>0.05295095177489926</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984563304914589</v>
+        <v>0.9984428028452067</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1675798128709076</v>
+        <v>0.1679882389075861</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H12" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05951985533614699</v>
+        <v>0.06074281801343656</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994354274984324</v>
+        <v>0.9994238271493701</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1779264057377217</v>
+        <v>0.1781316723986054</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -957,14 +957,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H13" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05599300176264916</v>
+        <v>0.05565511754985936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992418893195172</v>
+        <v>0.9992464640631891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1915715355941557</v>
+        <v>0.1910394153773017</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.669922641383406</v>
+        <v>1.659619214700069</v>
       </c>
       <c r="H14" t="n">
-        <v>0.97</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
+++ b/predictions/global/RandomForestRegressor/Comorbilidades.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5054668303206795</v>
+        <v>0.5027842378199027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9899350819882082</v>
+        <v>0.9899884981017091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5809698152077916</v>
+        <v>0.5795766793119063</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2380200390277357</v>
+        <v>0.2367633079409734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.995347892351448</v>
+        <v>0.9953724551921432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.388928029521514</v>
+        <v>0.3880481933457188</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2801693682837393</v>
+        <v>0.279539502636717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946101643504557</v>
+        <v>0.9946222815649089</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4308705752058256</v>
+        <v>0.4308435359205416</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4101610742791144</v>
+        <v>0.4110342851853201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.991912185175795</v>
+        <v>0.991894966652257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4881433782610972</v>
+        <v>0.4923299625507078</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4977224935575978</v>
+        <v>0.4921451733549996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9853805865482026</v>
+        <v>0.9855444070527011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5101095275548755</v>
+        <v>0.5158798569838562</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0927991180629256</v>
+        <v>0.09825746411803755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9987174910616756</v>
+        <v>0.9986420552412684</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2452999389069703</v>
+        <v>0.2566296982374509</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03259983967928603</v>
+        <v>0.03278388427532332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996640004035759</v>
+        <v>0.9996621034951678</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1293105934372282</v>
+        <v>0.1307472531425428</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09601824870913474</v>
+        <v>0.1107637560280684</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9994280466886284</v>
+        <v>0.9993402119087579</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2185058989829345</v>
+        <v>0.2294486971184508</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06784387018863616</v>
+        <v>0.06723949699425752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987606531598888</v>
+        <v>0.9987716936268701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2064557390828126</v>
+        <v>0.2052751533076876</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1275950966913157</v>
+        <v>0.1311181845461133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.99057280943097</v>
+        <v>0.9903125108657441</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2762380100792847</v>
+        <v>0.2835524564762872</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05295095177489926</v>
+        <v>0.05224580291309232</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984428028452067</v>
+        <v>0.9984635400702141</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1679882389075861</v>
+        <v>0.1677012470627132</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06074281801343656</v>
+        <v>0.06020935002615127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994238271493701</v>
+        <v>0.9994288873323021</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1781316723986054</v>
+        <v>0.1787292105558562</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05565511754985936</v>
+        <v>0.05551525225741943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992464640631891</v>
+        <v>0.9992483577529127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1910394153773017</v>
+        <v>0.1886676226951151</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.659619214700069</v>
+        <v>1.558460351833249</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9740000000000001</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
   </sheetData>
